--- a/Mapping.xlsx
+++ b/Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bekkemi\Desktop\Klanten\Opleidingen geven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6ECC3F-45E3-490E-80B9-78E795ADA113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A169880-A3B5-42FD-9A4A-33A737A23D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1209,7 +1209,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1543,13 +1563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198:B208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="50.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3218,7 +3239,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A208">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
